--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 65874-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 65874-2018.xlsx", "A 65874-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 65874-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 65874-2018.png", "A 65874-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 65874-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 65874-2018.docx", "A 65874-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 65874-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 65874-2018.docx", "A 65874-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 65874-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 65874-2018.docx", "A 65874-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 65874-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 65874-2018.docx", "A 65874-2018")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 1595-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 1595-2019.xlsx", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 1595-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 1595-2019.png", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 1595-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 1595-2019.png", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 1595-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 1595-2019.docx", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 1595-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 1595-2019.docx", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 1595-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 1595-2019.docx", "A 1595-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 1595-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 1595-2019.docx", "A 1595-2019")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 54026-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 54026-2018.xlsx", "A 54026-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 54026-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 54026-2018.png", "A 54026-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 54026-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 54026-2018.docx", "A 54026-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 54026-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 54026-2018.docx", "A 54026-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 54026-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 54026-2018.docx", "A 54026-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 54026-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 54026-2018.docx", "A 54026-2018")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -899,27 +899,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 45100-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 45100-2019.xlsx", "A 45100-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 45100-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 45100-2019.png", "A 45100-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 45100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 45100-2019.docx", "A 45100-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 45100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 45100-2019.docx", "A 45100-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 45100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 45100-2019.docx", "A 45100-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 45100-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 45100-2019.docx", "A 45100-2019")</f>
         <v/>
       </c>
     </row>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -984,27 +984,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 50855-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 50855-2019.xlsx", "A 50855-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 50855-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 50855-2019.png", "A 50855-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 50855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 50855-2019.docx", "A 50855-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 50855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 50855-2019.docx", "A 50855-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 50855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 50855-2019.docx", "A 50855-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 50855-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 50855-2019.docx", "A 50855-2019")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1069,27 +1069,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 34682-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 34682-2020.xlsx", "A 34682-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 34682-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 34682-2020.png", "A 34682-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 34682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 34682-2020.docx", "A 34682-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 34682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 34682-2020.docx", "A 34682-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 34682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 34682-2020.docx", "A 34682-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 34682-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 34682-2020.docx", "A 34682-2020")</f>
         <v/>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1154,27 +1154,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 41063-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 41063-2020.xlsx", "A 41063-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 41063-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 41063-2020.png", "A 41063-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 41063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 41063-2020.docx", "A 41063-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 41063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 41063-2020.docx", "A 41063-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 41063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 41063-2020.docx", "A 41063-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 41063-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 41063-2020.docx", "A 41063-2020")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1239,27 +1239,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 44540-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 44540-2020.xlsx", "A 44540-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 44540-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 44540-2020.png", "A 44540-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 44540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 44540-2020.docx", "A 44540-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 44540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 44540-2020.docx", "A 44540-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 44540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 44540-2020.docx", "A 44540-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 44540-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 44540-2020.docx", "A 44540-2020")</f>
         <v/>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 50311-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 50311-2020.xlsx", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 50311-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 50311-2020.png", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 50311-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 50311-2020.png", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 50311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 50311-2020.docx", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 50311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 50311-2020.docx", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 50311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 50311-2020.docx", "A 50311-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 50311-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 50311-2020.docx", "A 50311-2020")</f>
         <v/>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,27 +1413,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 20040-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 20040-2021.xlsx", "A 20040-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 20040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 20040-2021.png", "A 20040-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 20040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 20040-2021.docx", "A 20040-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 20040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 20040-2021.docx", "A 20040-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 20040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 20040-2021.docx", "A 20040-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 20040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 20040-2021.docx", "A 20040-2021")</f>
         <v/>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,27 +1498,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 38709-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 38709-2021.xlsx", "A 38709-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 38709-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 38709-2021.png", "A 38709-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 38709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 38709-2021.docx", "A 38709-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 38709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 38709-2021.docx", "A 38709-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 38709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 38709-2021.docx", "A 38709-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 38709-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 38709-2021.docx", "A 38709-2021")</f>
         <v/>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1583,27 +1583,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 43368-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 43368-2022.xlsx", "A 43368-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 43368-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 43368-2022.png", "A 43368-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 43368-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 43368-2022.docx", "A 43368-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 43368-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 43368-2022.docx", "A 43368-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 43368-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 43368-2022.docx", "A 43368-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 43368-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 43368-2022.docx", "A 43368-2022")</f>
         <v/>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1668,27 +1668,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 53806-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 53806-2022.xlsx", "A 53806-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 53806-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 53806-2022.png", "A 53806-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 53806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 53806-2022.docx", "A 53806-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 53806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 53806-2022.docx", "A 53806-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 53806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 53806-2022.docx", "A 53806-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 53806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 53806-2022.docx", "A 53806-2022")</f>
         <v/>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1753,27 +1753,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 27979-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/artfynd/A 27979-2023.xlsx", "A 27979-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 27979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/kartor/A 27979-2023.png", "A 27979-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 27979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 27979-2023.docx", "A 27979-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 27979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 27979-2023.docx", "A 27979-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 27979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 27979-2023.docx", "A 27979-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 27979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 27979-2023.docx", "A 27979-2023")</f>
         <v/>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8927,23 +8927,23 @@
       </c>
       <c r="R140" s="2" t="inlineStr"/>
       <c r="U140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 67560-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/knärot/A 67560-2019.png", "A 67560-2019")</f>
         <v/>
       </c>
       <c r="V140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 67560-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomål/A 67560-2019.docx", "A 67560-2019")</f>
         <v/>
       </c>
       <c r="W140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 67560-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/klagomålsmail/A 67560-2019.docx", "A 67560-2019")</f>
         <v/>
       </c>
       <c r="X140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 67560-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsyn/A 67560-2019.docx", "A 67560-2019")</f>
         <v/>
       </c>
       <c r="Y140">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 67560-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OLOFSTROM/tillsynsmail/A 67560-2019.docx", "A 67560-2019")</f>
         <v/>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y358"/>
+  <dimension ref="A1:Y362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="R357" s="2" t="inlineStr"/>
     </row>
-    <row r="358">
+    <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
           <t>A 40284-2023</t>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21487,6 +21487,234 @@
         <v>0</v>
       </c>
       <c r="R358" s="2" t="inlineStr"/>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>A 45688-2023</t>
+        </is>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C359" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>OLOFSTRÖM</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" s="2" t="inlineStr"/>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>A 45689-2023</t>
+        </is>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C360" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>OLOFSTRÖM</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" s="2" t="inlineStr"/>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>A 46531-2023</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C361" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>OLOFSTRÖM</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" s="2" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>A 46361-2023</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C362" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>OLOFSTRÖM</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45195</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45195</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45197</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45197</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45195</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45195</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45197</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45197</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45195</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45195</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45197</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45197</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>

--- a/Översikt OLOFSTRÖM.xlsx
+++ b/Översikt OLOFSTRÖM.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43461</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43392</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>43713</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         <v>43738</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>44034</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44071</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44313</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44410</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44834</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>44880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45098</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>43346</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>43346</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>43346</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>43350</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         <v>43353</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         <v>43353</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>43374</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         <v>43378</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>43378</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
         <v>43382</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>43385</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>43385</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>43402</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>43402</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>43404</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         <v>43405</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>43409</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43411</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>43411</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>43415</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3155,7 +3155,7 @@
         <v>43433</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>43455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>43455</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>43455</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>43455</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>43467</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>43479</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3554,7 +3554,7 @@
         <v>43480</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
         <v>43489</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>43489</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43493</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
         <v>43496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>43496</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3896,7 +3896,7 @@
         <v>43500</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>43509</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43510</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>43519</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         <v>43521</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>43525</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>43525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>43527</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>43528</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>43528</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>43530</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43531</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>43531</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>43546</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>43546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
         <v>43549</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>43549</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>43551</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>43553</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>43553</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43553</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>43556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>43560</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>43563</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>43567</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>43569</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43570</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43576</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>43580</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>43584</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>43584</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43587</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
         <v>43591</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>43591</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43591</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>43592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>43594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>43599</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>43599</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6233,7 +6233,7 @@
         <v>43609</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43620</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43621</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>43621</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>43633</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>43633</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>43638</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>43638</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6704,7 +6704,7 @@
         <v>43652</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>43658</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43658</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>43670</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>43670</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>43670</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43670</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43670</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43691</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43696</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43697</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43697</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43699</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43699</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43708</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43708</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43708</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43713</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43713</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>43732</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43737</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>43737</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>43746</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>43751</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>43751</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>43761</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>43767</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>43768</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>43768</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>43777</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>43777</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>43787</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>43788</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>43790</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>43797</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>43801</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>43803</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8880,7 +8880,7 @@
         <v>43815</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
         <v>43818</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9014,7 +9014,7 @@
         <v>43818</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>43819</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>43821</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43821</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43830</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43840</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>43845</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>43859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>43860</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>43896</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>43899</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>43909</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>43915</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>43920</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>43920</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>43922</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>43923</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>43923</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>43949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>43949</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>43951</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>43955</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>43959</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>43959</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>43962</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>43965</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>43965</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>44006</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>44007</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>44013</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>44013</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44013</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44013</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44031</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44055</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44057</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44057</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>44057</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>44061</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44061</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44061</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44061</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         <v>44073</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11562,7 +11562,7 @@
         <v>44078</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>44094</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         <v>44095</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
         <v>44103</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11790,7 +11790,7 @@
         <v>44109</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
         <v>44110</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>44111</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11966,7 +11966,7 @@
         <v>44112</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>44112</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>44112</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>44125</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         <v>44125</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44140</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44149</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44151</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44152</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44153</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44161</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44180</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44197</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44197</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44197</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44197</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44200</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44203</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>44204</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>44205</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>44205</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13344,7 +13344,7 @@
         <v>44207</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44210</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13458,7 +13458,7 @@
         <v>44217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>44217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44221</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>44221</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44221</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44221</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44221</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44224</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44224</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44230</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>44242</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>44249</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14152,7 +14152,7 @@
         <v>44267</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14209,7 +14209,7 @@
         <v>44280</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14266,7 +14266,7 @@
         <v>44305</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14323,7 +14323,7 @@
         <v>44326</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44351</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
         <v>44357</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44375</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14551,7 +14551,7 @@
         <v>44385</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>44386</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>44387</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44416</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>44417</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>44419</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>44421</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>44421</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44431</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>44433</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44440</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>44442</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>44442</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15364,7 +15364,7 @@
         <v>44447</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15421,7 +15421,7 @@
         <v>44449</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15478,7 +15478,7 @@
         <v>44452</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15535,7 +15535,7 @@
         <v>44453</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44469</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44496</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         <v>44516</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         <v>44531</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44531</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44551</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44551</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44551</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16115,7 +16115,7 @@
         <v>44551</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
         <v>44552</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
         <v>44558</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16286,7 +16286,7 @@
         <v>44559</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16343,7 +16343,7 @@
         <v>44567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16400,7 +16400,7 @@
         <v>44586</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44587</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>44590</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>44610</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44610</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44610</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>44610</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>44613</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44613</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>44613</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>44613</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17027,7 +17027,7 @@
         <v>44626</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44634</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44645</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         <v>44686</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17255,7 +17255,7 @@
         <v>44699</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>44704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17374,7 +17374,7 @@
         <v>44743</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17431,7 +17431,7 @@
         <v>44747</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>44748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>44754</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17602,7 +17602,7 @@
         <v>44755</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44791</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44805</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>44809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17835,7 +17835,7 @@
         <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>44819</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17949,7 +17949,7 @@
         <v>44832</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18006,7 +18006,7 @@
         <v>44851</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44858</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18120,7 +18120,7 @@
         <v>44858</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>44858</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>44858</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>44862</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44862</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44865</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44873</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44876</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44876</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44879</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18747,7 +18747,7 @@
         <v>44922</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18804,7 +18804,7 @@
         <v>44929</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>44935</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>44949</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>44951</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>44970</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19094,7 +19094,7 @@
         <v>44970</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19151,7 +19151,7 @@
         <v>44971</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19208,7 +19208,7 @@
         <v>44974</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19265,7 +19265,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19379,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19436,7 +19436,7 @@
         <v>44984</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19493,7 +19493,7 @@
         <v>44992</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19550,7 +19550,7 @@
         <v>44992</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19607,7 +19607,7 @@
         <v>44996</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19664,7 +19664,7 @@
         <v>44999</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19721,7 +19721,7 @@
         <v>45002</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19778,7 +19778,7 @@
         <v>45005</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19835,7 +19835,7 @@
         <v>45011</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         <v>45011</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45012</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45012</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>45027</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20177,7 +20177,7 @@
         <v>45028</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20234,7 +20234,7 @@
         <v>45029</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20291,7 +20291,7 @@
         <v>45032</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>45036</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20405,7 +20405,7 @@
         <v>45056</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>45077</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20529,7 +20529,7 @@
         <v>45078</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20643,7 +20643,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20700,7 +20700,7 @@
         <v>45099</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>45104</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>45107</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>45107</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20928,7 +20928,7 @@
         <v>45111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20985,7 +20985,7 @@
         <v>45112</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21042,7 +21042,7 @@
         <v>45117</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21099,7 +21099,7 @@
         <v>45120</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21156,7 +21156,7 @@
         <v>45140</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         <v>45155</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45162</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45163</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>45163</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>45169</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>45195</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         <v>45195</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21612,7 +21612,7 @@
         <v>45197</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>45197</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
